--- a/xlsx/供应链管理_intext.xlsx
+++ b/xlsx/供应链管理_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85_(%E7%BB%8F%E6%B5%8E)</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%AD%98</t>
   </si>
   <si>
-    <t>庫存</t>
+    <t>库存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%9C%AC</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E9%9E%AD%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>長鞭效應</t>
+    <t>长鞭效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E5%9D%97</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%A2%BC</t>
   </si>
   <si>
-    <t>條碼</t>
+    <t>条码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%BB%B4%E6%9D%A1%E7%A0%81</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%95%86%E5%93%81%E7%B7%A8%E7%A2%BC</t>
   </si>
   <si>
-    <t>歐洲商品編碼</t>
+    <t>欧洲商品编码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/GS1_DataBar</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E7%94%A2%E5%93%81%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>通用產品代碼</t>
+    <t>通用产品代码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MaxiCode</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E4%BB%B6</t>
   </si>
   <si>
-    <t>郵件</t>
+    <t>邮件</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CPC_Binary_Barcode</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E7%B6%AD%E6%A2%9D%E7%A2%BC</t>
   </si>
   <si>
-    <t>二維條碼</t>
+    <t>二维条码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PDF417</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E6%93%9A%E7%9F%A9%E9%99%A3</t>
   </si>
   <si>
-    <t>數據矩陣</t>
+    <t>数据矩阵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/EZcode</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/QR%E7%A2%BC</t>
   </si>
   <si>
-    <t>QR碼</t>
+    <t>QR码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E4%BF%A1%E7%A0%81</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%89%B2%E6%A2%9D%E7%A2%BC</t>
   </si>
   <si>
-    <t>彩色條碼</t>
+    <t>彩色条码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Barcode_reader</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A9%E9%99%A3</t>
   </si>
   <si>
-    <t>矩陣</t>
+    <t>矩阵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_tagging</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -647,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -779,25 +779,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -875,13 +875,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -941,13 +941,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
